--- a/Prompts/Prompts.xlsx
+++ b/Prompts/Prompts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pawel Sogra\Desktop\Work\Chatbots\pdf_Chatbot\Prompts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pawel Sogra\Desktop\Work\Chatbots\pdf_Chatbot\PDF-Chatbot\Prompts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2C2E12F-8650-4E52-9F79-E35ED3181EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BBEFF0-236E-40F9-8492-5E231C1075A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABFD11B9-7CCE-4A07-8514-8F4395F03519}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Head First Statistics.pdf ( PDFDrive ).pdf</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Blank</t>
+  </si>
+  <si>
+    <t>Fraud_Abuse_MLN4649244.pdf</t>
   </si>
 </sst>
 </file>
@@ -406,15 +409,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B4A05A-2E48-48CD-A172-F761EF3EEDF4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -430,6 +434,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
